--- a/data/input/states_of_brazil.xlsx
+++ b/data/input/states_of_brazil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Meu Drive\Doutorado IC-Unicamp\MO412 - Graphs Algorithms\07. Final Project\Covid19VaccinationProject-WorkFolders\01-Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Meu Drive\Doutorado IC-Unicamp\MO412 - Graphs Algorithms\07. Final Project\Covid19VaccinationProject\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Acre</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>initials</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>northeast</t>
+  </si>
+  <si>
+    <t>midwest</t>
+  </si>
+  <si>
+    <t>southeast</t>
+  </si>
+  <si>
+    <t>south</t>
   </si>
 </sst>
 </file>
@@ -515,241 +533,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
